--- a/obesity-excel-modified-dataset.xlsx
+++ b/obesity-excel-modified-dataset.xlsx
@@ -792,9 +792,6 @@
       <c r="C7">
         <v>1.62</v>
       </c>
-      <c r="D7">
-        <v>53</v>
-      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -842,9 +839,6 @@
       <c r="C8">
         <v>1.5</v>
       </c>
-      <c r="D8">
-        <v>55</v>
-      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -892,9 +886,6 @@
       <c r="C9">
         <v>1.64</v>
       </c>
-      <c r="D9">
-        <v>53</v>
-      </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -942,9 +933,6 @@
       <c r="C10">
         <v>1.78</v>
       </c>
-      <c r="D10">
-        <v>64</v>
-      </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
@@ -991,9 +979,6 @@
       </c>
       <c r="C11">
         <v>1.72</v>
-      </c>
-      <c r="D11">
-        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
